--- a/sputnik/personal/uch/uch269.xlsx
+++ b/sputnik/personal/uch/uch269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -40,6 +37,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 110 дн.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №269</t>
   </si>
 </sst>
 </file>
@@ -185,15 +188,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +510,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,9 +525,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -531,11 +538,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10086.65</v>
@@ -543,11 +550,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>43281</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -555,11 +562,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>9943.4500000000007</v>
@@ -567,11 +574,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43850</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8">
@@ -579,11 +586,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43850</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>550</v>
@@ -615,9 +622,6 @@
       <c r="D12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch269.xlsx
+++ b/sputnik/personal/uch/uch269.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Наименование / садовый участок №269</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 286 дн.</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,7 +517,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,20 +605,40 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11187.5</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="17">
+        <v>44026</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>4943.45</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="17">
+        <v>44026</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1413.83</v>
+      </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>

--- a/sputnik/personal/uch/uch269.xlsx
+++ b/sputnik/personal/uch/uch269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 286 дн.</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 134 дн.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,6 +209,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +522,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -531,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -545,7 +550,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -557,7 +562,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>43281</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -569,7 +574,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -581,7 +586,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>43850</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -593,19 +598,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>43850</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>550</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43952</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -617,7 +622,7 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>44026</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -629,24 +634,40 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>44026</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1413.83</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="16">
+        <v>44239</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>11187.5</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="16">
+        <v>44239</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1499.13</v>
+      </c>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch269.xlsx
+++ b/sputnik/personal/uch/uch269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 134 дн.</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,6 +671,54 @@
         <v>1499.13</v>
       </c>
       <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11930.35</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch269.xlsx
+++ b/sputnik/personal/uch/uch269.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 38 дн.</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +218,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +529,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,7 +641,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="18">
         <v>44026</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -661,7 +665,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="18">
         <v>44239</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -685,15 +689,27 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="16">
+        <v>44508</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>11930.35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="18">
+        <v>44508</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9">
+        <v>453.35</v>
+      </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
